--- a/FAO and GC Information.xlsx
+++ b/FAO and GC Information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InGenius Prep\Counselor app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InGenius Prep\Gitrepo public\Counselorapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E1CC8D-313B-48D2-8A19-F4309A9C23A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8897604-18E0-44CC-B351-9B1DEC6E87E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1145">
   <si>
     <t>Division</t>
   </si>
@@ -1285,9 +1285,6 @@
     <t>Firm/strict, Proactive, Organized</t>
   </si>
   <si>
-    <t>Europe, Asia</t>
-  </si>
-  <si>
     <t>Communication, Creative Writing, History, Classics</t>
   </si>
   <si>
@@ -1313,9 +1310,6 @@
     <t>Firm/strict, Creative, Patient, Handholding, Direct</t>
   </si>
   <si>
-    <t>EST, CST, MST, Australia/NZ, Europe</t>
-  </si>
-  <si>
     <t>Applied Math, Architecture, Business, Chemistry, Biology, Education, English, Environmental Science, Interdisciplinary, International Relations, Policy, Political Science, Social Sciences</t>
   </si>
   <si>
@@ -1385,9 +1379,6 @@
   <si>
     <t>PhD, Classics, Brown University
 BA, Classics, Cornell University</t>
-  </si>
-  <si>
-    <t>EST, Europe, Asia</t>
   </si>
   <si>
     <t>Classics, Creative Writing, Economics, Literature, Social Sciences</t>
@@ -1667,9 +1658,6 @@
   </si>
   <si>
     <t>Moscow, Russia</t>
-  </si>
-  <si>
-    <t>Asia, Europe, Australia/NZ</t>
   </si>
   <si>
     <t>Fine Arts, Literature, International Relations, Interdisciplinary</t>
@@ -2911,9 +2899,6 @@
     <t>Central European Time</t>
   </si>
   <si>
-    <t>Europe, EST, Asia</t>
-  </si>
-  <si>
     <t>Environmental Science</t>
   </si>
   <si>
@@ -3706,6 +3691,45 @@
   </si>
   <si>
     <t>Available Packages</t>
+  </si>
+  <si>
+    <t>EST, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>EST, Asia, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>Europe, Arabian Standard Time, Asia</t>
+  </si>
+  <si>
+    <t>EST, CST, MST, Australia/NZ, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>EST, Europe, Arabian Standard Time, Asia</t>
+  </si>
+  <si>
+    <t>EST, Asia, Australia/NZ, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>EST, CST, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>EST, CST, MST, PST, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>Asia, Europe, Arabian Standard Time, Australia/NZ</t>
+  </si>
+  <si>
+    <t>Asia, Australia/NZ, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>Europe, Arabian Standard Time, EST</t>
+  </si>
+  <si>
+    <t>EST, CST, Asia, Europe, Arabian Standard Time</t>
+  </si>
+  <si>
+    <t>Europe, Arabian Standard Time, EST, Asia</t>
   </si>
 </sst>
 </file>
@@ -4159,7 +4183,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4186,22 +4210,22 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4233,7 +4257,7 @@
         <v>42675</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -4248,7 +4272,7 @@
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
@@ -4280,7 +4304,7 @@
         <v>2017</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -4295,7 +4319,7 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4327,7 +4351,7 @@
         <v>42795</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
@@ -4342,7 +4366,7 @@
         <v>8</v>
       </c>
       <c r="O4" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="360.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4374,7 +4398,7 @@
         <v>43101</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
@@ -4389,7 +4413,7 @@
         <v>7</v>
       </c>
       <c r="O5" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="346.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4421,7 +4445,7 @@
         <v>43586</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
@@ -4436,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4465,7 +4489,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="K7" t="s">
         <v>51</v>
@@ -4480,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4512,7 +4536,7 @@
         <v>43891</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -4527,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
@@ -4559,7 +4583,7 @@
         <v>44013</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K9" t="s">
         <v>63</v>
@@ -4574,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="231" thickBot="1" x14ac:dyDescent="0.35">
@@ -4606,7 +4630,7 @@
         <v>44197</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -4621,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -4650,7 +4674,7 @@
         <v>44013</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="K11" t="s">
         <v>77</v>
@@ -4665,7 +4689,7 @@
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="346.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4697,7 +4721,7 @@
         <v>44075</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="K12" t="s">
         <v>83</v>
@@ -4712,7 +4736,7 @@
         <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4741,7 +4765,7 @@
         <v>44256</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="K13" t="s">
         <v>89</v>
@@ -4756,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4788,7 +4812,7 @@
         <v>44348</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="K14" t="s">
         <v>94</v>
@@ -4803,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4835,7 +4859,7 @@
         <v>44348</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="K15" t="s">
         <v>99</v>
@@ -4850,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4882,7 +4906,7 @@
         <v>44378</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="K16" t="s">
         <v>24</v>
@@ -4897,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -4929,7 +4953,7 @@
         <v>44409</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="K17" t="s">
         <v>109</v>
@@ -4944,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4976,7 +5000,7 @@
         <v>44440</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="K18" t="s">
         <v>114</v>
@@ -4988,7 +5012,7 @@
         <v>4</v>
       </c>
       <c r="O18" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5017,7 +5041,7 @@
         <v>44440</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="L19" t="s">
         <v>119</v>
@@ -5029,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5061,7 +5085,7 @@
         <v>44440</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="K20" t="s">
         <v>123</v>
@@ -5076,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5105,7 +5129,7 @@
         <v>44621</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="K21" t="s">
         <v>130</v>
@@ -5120,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -5149,7 +5173,7 @@
         <v>44652</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="K22" t="s">
         <v>135</v>
@@ -5164,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5190,7 +5214,7 @@
         <v>44682</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="K23" t="s">
         <v>142</v>
@@ -5205,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -5237,7 +5261,7 @@
         <v>44713</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="K24" t="s">
         <v>147</v>
@@ -5246,7 +5270,7 @@
         <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5275,13 +5299,13 @@
         <v>44713</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="N25">
         <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5313,7 +5337,7 @@
         <v>43586</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="K26" t="s">
         <v>155</v>
@@ -5325,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -5357,7 +5381,7 @@
         <v>44743</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="K27" t="s">
         <v>159</v>
@@ -5372,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5404,7 +5428,7 @@
         <v>44774</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="K28" t="s">
         <v>164</v>
@@ -5419,7 +5443,7 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5451,7 +5475,7 @@
         <v>44797</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="K29" t="s">
         <v>169</v>
@@ -5466,7 +5490,7 @@
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5498,7 +5522,7 @@
         <v>44805</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="K30" t="s">
         <v>174</v>
@@ -5513,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="231" thickBot="1" x14ac:dyDescent="0.35">
@@ -5542,7 +5566,7 @@
         <v>44896</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="K31" t="s">
         <v>178</v>
@@ -5557,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5586,7 +5610,7 @@
         <v>44940</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="K32" t="s">
         <v>24</v>
@@ -5601,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -5633,7 +5657,7 @@
         <v>45022</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="K33" t="s">
         <v>188</v>
@@ -5648,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5680,7 +5704,7 @@
         <v>43474</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="K34" t="s">
         <v>195</v>
@@ -5695,7 +5719,7 @@
         <v>6</v>
       </c>
       <c r="O34" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -5724,7 +5748,7 @@
         <v>45058</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="K35" t="s">
         <v>201</v>
@@ -5739,7 +5763,7 @@
         <v>2</v>
       </c>
       <c r="O35" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5768,7 +5792,7 @@
         <v>45077</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="K36" t="s">
         <v>206</v>
@@ -5783,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5815,7 +5839,7 @@
         <v>45097</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="K37" t="s">
         <v>210</v>
@@ -5830,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -5859,7 +5883,7 @@
         <v>43990</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="K38" t="s">
         <v>216</v>
@@ -5874,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="O38" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5903,7 +5927,7 @@
         <v>45105</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="K39" t="s">
         <v>174</v>
@@ -5918,7 +5942,7 @@
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -5950,7 +5974,7 @@
         <v>45120</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="K40" t="s">
         <v>223</v>
@@ -5965,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5997,7 +6021,7 @@
         <v>45131</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="K41" t="s">
         <v>229</v>
@@ -6012,7 +6036,7 @@
         <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -6044,7 +6068,7 @@
         <v>44317</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="K42" t="s">
         <v>234</v>
@@ -6059,7 +6083,7 @@
         <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -6091,7 +6115,7 @@
         <v>45200</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="K43" t="s">
         <v>239</v>
@@ -6106,7 +6130,7 @@
         <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6138,7 +6162,7 @@
         <v>45177</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="K44" t="s">
         <v>245</v>
@@ -6153,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -6185,7 +6209,7 @@
         <v>45222</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="K45" t="s">
         <v>250</v>
@@ -6200,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6232,7 +6256,7 @@
         <v>45286</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="K46" t="s">
         <v>245</v>
@@ -6247,7 +6271,7 @@
         <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6276,7 +6300,7 @@
         <v>45293</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="K47" t="s">
         <v>259</v>
@@ -6291,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -6320,7 +6344,7 @@
         <v>45299</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="K48" t="s">
         <v>245</v>
@@ -6335,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6367,7 +6391,7 @@
         <v>45299</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="K49" t="s">
         <v>164</v>
@@ -6382,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6411,7 +6435,7 @@
         <v>45316</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="K50" t="s">
         <v>271</v>
@@ -6426,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6458,7 +6482,7 @@
         <v>45359</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="K51" t="s">
         <v>275</v>
@@ -6473,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -6502,7 +6526,7 @@
         <v>45379</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="K52" t="s">
         <v>275</v>
@@ -6517,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6549,13 +6573,13 @@
         <v>45380</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -6587,7 +6611,7 @@
         <v>45387</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="K54" t="s">
         <v>285</v>
@@ -6602,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6634,7 +6658,7 @@
         <v>45408</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="K55" t="s">
         <v>290</v>
@@ -6649,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -6678,7 +6702,7 @@
         <v>45414</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="K56" t="s">
         <v>295</v>
@@ -6693,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6725,7 +6749,7 @@
         <v>45428</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="K57" t="s">
         <v>299</v>
@@ -6740,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6772,7 +6796,7 @@
         <v>45434</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="K58" t="s">
         <v>304</v>
@@ -6787,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6819,7 +6843,7 @@
         <v>45418</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="K59" t="s">
         <v>308</v>
@@ -6834,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -6863,7 +6887,7 @@
         <v>45474</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="K60" t="s">
         <v>312</v>
@@ -6878,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -6910,7 +6934,7 @@
         <v>45460</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="K61" t="s">
         <v>316</v>
@@ -6925,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -6957,7 +6981,7 @@
         <v>45474</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="K62" t="s">
         <v>321</v>
@@ -6972,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -7001,7 +7025,7 @@
         <v>45478</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="K63" t="s">
         <v>326</v>
@@ -7016,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7048,7 +7072,7 @@
         <v>45505</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="K64" t="s">
         <v>332</v>
@@ -7063,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7093,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9911,8 +9935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1050BBE-44F8-4421-85F3-B9008122B25D}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J115" workbookViewId="0">
-      <selection activeCell="O117" sqref="O117"/>
+    <sheetView tabSelected="1" topLeftCell="J103" workbookViewId="0">
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9935,7 +9959,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9950,7 +9974,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -9965,22 +9989,22 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10000,7 +10024,7 @@
         <v>341</v>
       </c>
       <c r="F2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>14</v>
@@ -10016,7 +10040,7 @@
       </c>
       <c r="L2" s="7"/>
       <c r="P2" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10036,7 +10060,7 @@
         <v>345</v>
       </c>
       <c r="F3" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>14</v>
@@ -10054,13 +10078,13 @@
         <v>7</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="M3" t="s">
         <v>347</v>
       </c>
       <c r="P3" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10080,7 +10104,7 @@
         <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>22</v>
@@ -10095,10 +10119,10 @@
         <v>9</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="P4" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10118,7 +10142,7 @@
         <v>352</v>
       </c>
       <c r="F5" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>14</v>
@@ -10140,7 +10164,7 @@
         <v>353</v>
       </c>
       <c r="P5" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10160,7 +10184,7 @@
         <v>355</v>
       </c>
       <c r="F6" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>14</v>
@@ -10175,10 +10199,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="P6" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -10198,7 +10222,7 @@
         <v>358</v>
       </c>
       <c r="F7" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>14</v>
@@ -10216,10 +10240,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="P7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10239,7 +10263,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>14</v>
@@ -10254,10 +10278,10 @@
         <v>2</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="P8" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -10277,7 +10301,7 @@
         <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>22</v>
@@ -10295,10 +10319,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="P9" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10318,7 +10342,7 @@
         <v>365</v>
       </c>
       <c r="F10" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>14</v>
@@ -10336,10 +10360,10 @@
         <v>7</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="P10" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
@@ -10359,7 +10383,7 @@
         <v>368</v>
       </c>
       <c r="F11" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>14</v>
@@ -10374,10 +10398,10 @@
         <v>7</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="P11" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -10397,7 +10421,7 @@
         <v>372</v>
       </c>
       <c r="F12" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>14</v>
@@ -10415,7 +10439,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="M12" t="s">
         <v>374</v>
@@ -10427,7 +10451,7 @@
         <v>375</v>
       </c>
       <c r="P12" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -10447,7 +10471,7 @@
         <v>377</v>
       </c>
       <c r="F13" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>29</v>
@@ -10465,16 +10489,16 @@
         <v>6</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>1132</v>
       </c>
       <c r="O13" t="s">
         <v>379</v>
       </c>
       <c r="P13" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -10494,7 +10518,7 @@
         <v>381</v>
       </c>
       <c r="F14" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>29</v>
@@ -10509,16 +10533,16 @@
         <v>5</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N14" t="s">
-        <v>211</v>
+        <v>1133</v>
       </c>
       <c r="O14" t="s">
         <v>382</v>
       </c>
       <c r="P14" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -10538,7 +10562,7 @@
         <v>384</v>
       </c>
       <c r="F15" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>22</v>
@@ -10553,24 +10577,24 @@
         <v>1</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="M15" t="s">
         <v>386</v>
       </c>
       <c r="N15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="O15" t="s">
         <v>387</v>
       </c>
-      <c r="O15" t="s">
-        <v>388</v>
-      </c>
       <c r="P15" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -10582,10 +10606,10 @@
         <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F16" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>29</v>
@@ -10597,18 +10621,18 @@
         <v>1</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="M16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P16" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>339</v>
@@ -10620,10 +10644,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>22</v>
@@ -10638,27 +10662,27 @@
         <v>5</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M17" t="s">
+        <v>393</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O17" t="s">
         <v>394</v>
       </c>
-      <c r="N17" t="s">
-        <v>395</v>
-      </c>
-      <c r="O17" t="s">
-        <v>396</v>
-      </c>
       <c r="P17" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C18" t="s">
         <v>340</v>
@@ -10667,10 +10691,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G18" s="10"/>
       <c r="J18" s="2">
@@ -10681,15 +10705,15 @@
       </c>
       <c r="L18" s="7"/>
       <c r="P18" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C19" t="s">
         <v>340</v>
@@ -10698,7 +10722,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>14</v>
@@ -10713,42 +10737,42 @@
         <v>5</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N19" t="s">
         <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P19" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F20" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -10760,45 +10784,45 @@
         <v>6</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="M20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N20" t="s">
         <v>78</v>
       </c>
       <c r="O20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P20" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B21" t="s">
         <v>339</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F21" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -10807,24 +10831,24 @@
         <v>1</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="M21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N21" t="s">
         <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P21" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B22" t="s">
         <v>339</v>
@@ -10836,10 +10860,10 @@
         <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F22" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>29</v>
@@ -10857,24 +10881,24 @@
         <v>4</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="M22" t="s">
         <v>147</v>
       </c>
       <c r="N22" t="s">
-        <v>417</v>
+        <v>1136</v>
       </c>
       <c r="O22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P22" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B23" t="s">
         <v>339</v>
@@ -10886,10 +10910,10 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F23" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>22</v>
@@ -10907,18 +10931,18 @@
         <v>4</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="M23" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P23" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B24" t="s">
         <v>339</v>
@@ -10930,10 +10954,10 @@
         <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F24" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>22</v>
@@ -10951,27 +10975,27 @@
         <v>4</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="M24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P24" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C25" t="s">
         <v>340</v>
@@ -10980,10 +11004,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F25" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>29</v>
@@ -11001,18 +11025,18 @@
         <v>4</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="M25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P25" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B26" t="s">
         <v>339</v>
@@ -11024,16 +11048,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F26" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
@@ -11045,27 +11069,27 @@
         <v>4</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="M26" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N26" t="s">
-        <v>84</v>
+        <v>1137</v>
       </c>
       <c r="O26" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P26" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" t="s">
         <v>340</v>
@@ -11074,16 +11098,16 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F27" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I27" t="s">
         <v>50</v>
@@ -11095,15 +11119,15 @@
         <v>4</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="P27" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="360.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B28" t="s">
         <v>339</v>
@@ -11115,16 +11139,16 @@
         <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F28" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
@@ -11136,24 +11160,24 @@
         <v>4</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="M28" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O28" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P28" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
         <v>339</v>
@@ -11165,16 +11189,16 @@
         <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F29" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -11186,27 +11210,27 @@
         <v>4</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="M29" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N29" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O29" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P29" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C30" t="s">
         <v>340</v>
@@ -11215,16 +11239,16 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F30" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -11236,24 +11260,24 @@
         <v>4</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="M30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N30" t="s">
         <v>78</v>
       </c>
       <c r="O30" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P30" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B31" t="s">
         <v>339</v>
@@ -11265,16 +11289,16 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F31" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
@@ -11286,24 +11310,24 @@
         <v>4</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="M31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N31" t="s">
-        <v>387</v>
+        <v>1134</v>
       </c>
       <c r="O31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P31" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B32" t="s">
         <v>339</v>
@@ -11315,10 +11339,10 @@
         <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F32" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>22</v>
@@ -11336,7 +11360,7 @@
         <v>4</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="M32" t="s">
         <v>114</v>
@@ -11345,18 +11369,18 @@
         <v>78</v>
       </c>
       <c r="O32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P32" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C33" t="s">
         <v>340</v>
@@ -11365,16 +11389,16 @@
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F33" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
@@ -11386,24 +11410,24 @@
         <v>3</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="M33" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N33" t="s">
-        <v>119</v>
+        <v>1138</v>
       </c>
       <c r="O33" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P33" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="389.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B34" t="s">
         <v>339</v>
@@ -11415,16 +11439,16 @@
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F34" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I34" t="s">
         <v>16</v>
@@ -11436,24 +11460,24 @@
         <v>3</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="M34" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N34" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O34" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P34" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B35" t="s">
         <v>339</v>
@@ -11465,10 +11489,10 @@
         <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F35" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>29</v>
@@ -11486,24 +11510,24 @@
         <v>3</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="M35" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N35" t="s">
         <v>78</v>
       </c>
       <c r="O35" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P35" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B36" t="s">
         <v>339</v>
@@ -11515,10 +11539,10 @@
         <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>14</v>
@@ -11536,15 +11560,15 @@
         <v>3</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="P36" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B37" t="s">
         <v>339</v>
@@ -11553,13 +11577,13 @@
         <v>340</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F37" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>14</v>
@@ -11577,24 +11601,24 @@
         <v>3</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="M37" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N37" t="s">
-        <v>84</v>
+        <v>1137</v>
       </c>
       <c r="O37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P37" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
         <v>339</v>
@@ -11606,10 +11630,10 @@
         <v>47</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F38" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>22</v>
@@ -11627,18 +11651,18 @@
         <v>3</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="P38" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="375" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C39" t="s">
         <v>340</v>
@@ -11647,10 +11671,10 @@
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F39" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>14</v>
@@ -11668,24 +11692,24 @@
         <v>3</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="M39" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N39" t="s">
-        <v>104</v>
+        <v>1139</v>
       </c>
       <c r="O39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P39" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B40" t="s">
         <v>339</v>
@@ -11697,16 +11721,16 @@
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F40" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
@@ -11718,42 +11742,42 @@
         <v>3</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="M40" t="s">
         <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O40" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="P40" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C41" t="s">
         <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F41" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J41" s="2">
         <v>44763</v>
@@ -11763,12 +11787,12 @@
       </c>
       <c r="L41" s="7"/>
       <c r="P41" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B42" t="s">
         <v>339</v>
@@ -11780,16 +11804,16 @@
         <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F42" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J42" s="2">
         <v>44803</v>
@@ -11798,24 +11822,24 @@
         <v>3</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="N42" t="s">
-        <v>501</v>
+        <v>1140</v>
       </c>
       <c r="O42" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P42" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C43" t="s">
         <v>340</v>
@@ -11824,16 +11848,16 @@
         <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F43" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I43" t="s">
         <v>50</v>
@@ -11846,12 +11870,12 @@
       </c>
       <c r="L43" s="7"/>
       <c r="P43" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B44" t="s">
         <v>339</v>
@@ -11863,16 +11887,16 @@
         <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F44" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
@@ -11884,24 +11908,24 @@
         <v>3</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="M44" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N44" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O44" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P44" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B45" t="s">
         <v>339</v>
@@ -11913,10 +11937,10 @@
         <v>12</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F45" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>14</v>
@@ -11934,21 +11958,21 @@
         <v>3</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M45" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="O45" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P45" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B46" t="s">
         <v>339</v>
@@ -11960,10 +11984,10 @@
         <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F46" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>14</v>
@@ -11978,15 +12002,15 @@
         <v>3</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P46" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B47" t="s">
         <v>339</v>
@@ -11998,16 +12022,16 @@
         <v>139</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F47" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I47" t="s">
         <v>50</v>
@@ -12019,24 +12043,24 @@
         <v>3</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="M47" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N47" t="s">
         <v>165</v>
       </c>
       <c r="O47" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P47" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B48" t="s">
         <v>339</v>
@@ -12045,13 +12069,13 @@
         <v>340</v>
       </c>
       <c r="D48" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F48" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>14</v>
@@ -12069,24 +12093,24 @@
         <v>3</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M48" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N48" t="s">
         <v>196</v>
       </c>
       <c r="O48" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P48" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B49" t="s">
         <v>339</v>
@@ -12095,13 +12119,13 @@
         <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F49" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>14</v>
@@ -12119,27 +12143,27 @@
         <v>3</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="M49" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N49" t="s">
-        <v>58</v>
+        <v>1141</v>
       </c>
       <c r="O49" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P49" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C50" t="s">
         <v>340</v>
@@ -12148,10 +12172,10 @@
         <v>139</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F50" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>14</v>
@@ -12169,27 +12193,27 @@
         <v>3</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="M50" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N50" t="s">
         <v>78</v>
       </c>
       <c r="O50" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="P50" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C51" t="s">
         <v>340</v>
@@ -12198,16 +12222,16 @@
         <v>139</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F51" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
@@ -12219,24 +12243,24 @@
         <v>3</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="M51" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="N51" t="s">
         <v>263</v>
       </c>
       <c r="O51" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P51" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B52" t="s">
         <v>339</v>
@@ -12248,16 +12272,16 @@
         <v>139</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F52" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -12269,27 +12293,27 @@
         <v>3</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="M52" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N52" t="s">
-        <v>387</v>
+        <v>1134</v>
       </c>
       <c r="O52" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P52" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C53" t="s">
         <v>340</v>
@@ -12298,10 +12322,10 @@
         <v>47</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F53" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>14</v>
@@ -12320,12 +12344,12 @@
       </c>
       <c r="L53" s="7"/>
       <c r="P53" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B54" t="s">
         <v>339</v>
@@ -12337,16 +12361,16 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F54" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -12358,15 +12382,15 @@
         <v>3</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="P54" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B55" t="s">
         <v>339</v>
@@ -12378,16 +12402,16 @@
         <v>139</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F55" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -12399,24 +12423,24 @@
         <v>3</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="M55" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O55" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P55" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B56" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C56" t="s">
         <v>340</v>
@@ -12425,10 +12449,10 @@
         <v>47</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F56" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>14</v>
@@ -12446,45 +12470,45 @@
         <v>2</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="M56" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N56" t="s">
         <v>78</v>
       </c>
       <c r="O56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P56" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B57" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C57" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D57" t="s">
         <v>47</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F57" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J57" s="2">
         <v>45036</v>
@@ -12493,24 +12517,24 @@
         <v>2</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="M57" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N57" t="s">
         <v>78</v>
       </c>
       <c r="O57" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P57" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -12522,10 +12546,10 @@
         <v>47</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F58" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>14</v>
@@ -12543,21 +12567,21 @@
         <v>2</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="M58" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="P58" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C59" t="s">
         <v>340</v>
@@ -12566,10 +12590,10 @@
         <v>47</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F59" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>22</v>
@@ -12587,18 +12611,18 @@
         <v>9</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="M59" t="s">
         <v>250</v>
       </c>
       <c r="P59" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B60" t="s">
         <v>339</v>
@@ -12610,10 +12634,10 @@
         <v>47</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F60" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>29</v>
@@ -12628,27 +12652,27 @@
         <v>2</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="M60" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N60" t="s">
-        <v>58</v>
+        <v>1141</v>
       </c>
       <c r="O60" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P60" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C61" t="s">
         <v>340</v>
@@ -12657,10 +12681,10 @@
         <v>47</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F61" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>14</v>
@@ -12678,18 +12702,18 @@
         <v>2</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M61" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="P61" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B62" t="s">
         <v>339</v>
@@ -12701,10 +12725,10 @@
         <v>47</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F62" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>14</v>
@@ -12720,12 +12744,12 @@
       </c>
       <c r="L62" s="7"/>
       <c r="P62" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B63" t="s">
         <v>339</v>
@@ -12737,10 +12761,10 @@
         <v>47</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F63" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>14</v>
@@ -12758,15 +12782,15 @@
         <v>2</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="P63" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B64" t="s">
         <v>339</v>
@@ -12778,16 +12802,16 @@
         <v>47</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F64" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J64" s="2">
         <v>45058</v>
@@ -12796,15 +12820,15 @@
         <v>2</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="P64" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B65" t="s">
         <v>339</v>
@@ -12816,16 +12840,16 @@
         <v>139</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F65" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I65" t="s">
         <v>16</v>
@@ -12837,24 +12861,24 @@
         <v>2</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="M65" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N65" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="O65" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P65" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B66" t="s">
         <v>339</v>
@@ -12866,13 +12890,13 @@
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -12884,42 +12908,42 @@
         <v>2</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="M66" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N66" t="s">
-        <v>58</v>
+        <v>1141</v>
       </c>
       <c r="O66" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P66" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B67" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C67" t="s">
         <v>340</v>
       </c>
       <c r="D67" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I67" t="s">
         <v>16</v>
@@ -12932,21 +12956,21 @@
       </c>
       <c r="L67" s="7"/>
       <c r="M67" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N67" t="s">
         <v>78</v>
       </c>
       <c r="O67" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P67" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B68" t="s">
         <v>339</v>
@@ -12958,13 +12982,13 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I68" t="s">
         <v>50</v>
@@ -12976,27 +13000,27 @@
         <v>2</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="P68" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C69" t="s">
         <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E69" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>22</v>
@@ -13014,15 +13038,15 @@
         <v>2</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="P69" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B70" t="s">
         <v>339</v>
@@ -13034,13 +13058,13 @@
         <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -13052,24 +13076,24 @@
         <v>2</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="M70" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N70" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="O70" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="P70" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B71" t="s">
         <v>339</v>
@@ -13081,7 +13105,7 @@
         <v>47</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>14</v>
@@ -13099,15 +13123,15 @@
         <v>2</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="P71" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B72" t="s">
         <v>339</v>
@@ -13119,13 +13143,13 @@
         <v>139</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J72" s="2">
         <v>45086</v>
@@ -13134,27 +13158,27 @@
         <v>2</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M72" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N72" t="s">
-        <v>58</v>
+        <v>1141</v>
       </c>
       <c r="O72" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P72" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B73" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C73" t="s">
         <v>340</v>
@@ -13163,7 +13187,7 @@
         <v>47</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>22</v>
@@ -13181,15 +13205,15 @@
         <v>2</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="P73" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -13201,7 +13225,7 @@
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>22</v>
@@ -13219,21 +13243,21 @@
         <v>2</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="M74" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O74" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="P74" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B75" t="s">
         <v>339</v>
@@ -13245,7 +13269,7 @@
         <v>47</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>29</v>
@@ -13260,15 +13284,15 @@
         <v>2</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="P75" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B76" t="s">
         <v>339</v>
@@ -13280,7 +13304,7 @@
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>22</v>
@@ -13298,21 +13322,21 @@
         <v>2</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="N76" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="O76" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="P76" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B77" t="s">
         <v>339</v>
@@ -13324,13 +13348,13 @@
         <v>47</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H77" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I77" t="s">
         <v>16</v>
@@ -13342,27 +13366,27 @@
         <v>2</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="M77" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="N77" t="s">
-        <v>246</v>
+        <v>1142</v>
       </c>
       <c r="O77" t="s">
         <v>323</v>
       </c>
       <c r="P77" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C78" t="s">
         <v>340</v>
@@ -13371,7 +13395,7 @@
         <v>47</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>14</v>
@@ -13389,18 +13413,18 @@
         <v>2</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="P78" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
         <v>340</v>
@@ -13409,13 +13433,13 @@
         <v>47</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I79" t="s">
         <v>16</v>
@@ -13427,24 +13451,24 @@
         <v>2</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="M79" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="N79" t="s">
         <v>78</v>
       </c>
       <c r="O79" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="P79" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="375" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -13456,7 +13480,7 @@
         <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>14</v>
@@ -13474,27 +13498,27 @@
         <v>2</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="M80" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="N80" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O80" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="P80" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B81" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C81" t="s">
         <v>340</v>
@@ -13503,7 +13527,7 @@
         <v>139</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>14</v>
@@ -13521,24 +13545,24 @@
         <v>2</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="M81" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="N81" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="O81" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="P81" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B82" t="s">
         <v>339</v>
@@ -13550,13 +13574,13 @@
         <v>47</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I82" t="s">
         <v>16</v>
@@ -13568,24 +13592,24 @@
         <v>2</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="M82" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="N82" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="O82" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="P82" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -13597,7 +13621,7 @@
         <v>47</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>14</v>
@@ -13615,15 +13639,15 @@
         <v>2</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="P83" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B84" t="s">
         <v>339</v>
@@ -13635,7 +13659,7 @@
         <v>47</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>29</v>
@@ -13653,7 +13677,7 @@
         <v>2</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="M84" t="s">
         <v>275</v>
@@ -13662,15 +13686,15 @@
         <v>165</v>
       </c>
       <c r="O84" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="P84" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B85" t="s">
         <v>339</v>
@@ -13682,7 +13706,7 @@
         <v>139</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>14</v>
@@ -13700,15 +13724,15 @@
         <v>2</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="P85" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B86" t="s">
         <v>339</v>
@@ -13720,7 +13744,7 @@
         <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>14</v>
@@ -13738,24 +13762,24 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="M86" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="N86" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="O86" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="P86" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B87" t="s">
         <v>339</v>
@@ -13767,13 +13791,13 @@
         <v>47</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J87" s="2">
         <v>45232</v>
@@ -13782,15 +13806,15 @@
         <v>2</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="P87" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B88" t="s">
         <v>339</v>
@@ -13802,7 +13826,7 @@
         <v>47</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>14</v>
@@ -13821,21 +13845,21 @@
       </c>
       <c r="L88" s="7"/>
       <c r="M88" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="N88" t="s">
         <v>165</v>
       </c>
       <c r="O88" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="P88" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="171" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B89" t="s">
         <v>339</v>
@@ -13847,7 +13871,7 @@
         <v>47</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>29</v>
@@ -13862,15 +13886,15 @@
         <v>2</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="P89" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B90" t="s">
         <v>339</v>
@@ -13882,13 +13906,13 @@
         <v>47</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I90" t="s">
         <v>50</v>
@@ -13900,21 +13924,21 @@
         <v>2</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="M90" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="P90" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B91" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C91" t="s">
         <v>340</v>
@@ -13923,7 +13947,7 @@
         <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>22</v>
@@ -13941,27 +13965,27 @@
         <v>2</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="M91" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="N91" t="s">
         <v>165</v>
       </c>
       <c r="O91" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="P91" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B92" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s">
         <v>340</v>
@@ -13970,7 +13994,7 @@
         <v>47</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>29</v>
@@ -13985,27 +14009,27 @@
         <v>2</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="M92" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="N92" t="s">
         <v>64</v>
       </c>
       <c r="O92" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="P92" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B93" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C93" t="s">
         <v>340</v>
@@ -14014,7 +14038,7 @@
         <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>22</v>
@@ -14029,18 +14053,18 @@
         <v>2</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="P93" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B94" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C94" t="s">
         <v>340</v>
@@ -14049,7 +14073,7 @@
         <v>139</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>14</v>
@@ -14067,24 +14091,24 @@
         <v>1</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="M94" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="N94" t="s">
         <v>78</v>
       </c>
       <c r="O94" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="P94" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B95" t="s">
         <v>339</v>
@@ -14096,7 +14120,7 @@
         <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>22</v>
@@ -14114,18 +14138,18 @@
         <v>1</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="M95" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="P95" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B96" t="s">
         <v>339</v>
@@ -14137,13 +14161,13 @@
         <v>47</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="I96" t="s">
         <v>16</v>
@@ -14155,21 +14179,21 @@
         <v>1</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="M96" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="N96" t="s">
         <v>279</v>
       </c>
       <c r="P96" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B97" t="s">
         <v>339</v>
@@ -14181,7 +14205,7 @@
         <v>139</v>
       </c>
       <c r="E97" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>22</v>
@@ -14199,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="M97" t="s">
         <v>271</v>
@@ -14208,18 +14232,18 @@
         <v>78</v>
       </c>
       <c r="O97" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="P97" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B98" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
         <v>340</v>
@@ -14228,7 +14252,7 @@
         <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>22</v>
@@ -14246,24 +14270,24 @@
         <v>1</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="M98" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="N98" t="s">
         <v>196</v>
       </c>
       <c r="O98" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="P98" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B99" t="s">
         <v>371</v>
@@ -14275,7 +14299,7 @@
         <v>47</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>14</v>
@@ -14293,15 +14317,15 @@
         <v>1</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="P99" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B100" t="s">
         <v>339</v>
@@ -14313,7 +14337,7 @@
         <v>47</v>
       </c>
       <c r="E100" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>22</v>
@@ -14331,15 +14355,15 @@
         <v>1</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="P100" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B101" t="s">
         <v>339</v>
@@ -14351,7 +14375,7 @@
         <v>47</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>22</v>
@@ -14369,15 +14393,15 @@
         <v>1</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="P101" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B102" t="s">
         <v>339</v>
@@ -14389,7 +14413,7 @@
         <v>47</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>22</v>
@@ -14407,18 +14431,18 @@
         <v>1</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="P102" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B103" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
         <v>340</v>
@@ -14427,13 +14451,13 @@
         <v>47</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H103" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I103" t="s">
         <v>16</v>
@@ -14445,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M103" t="s">
         <v>147</v>
@@ -14454,15 +14478,15 @@
         <v>291</v>
       </c>
       <c r="O103" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="P103" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B104" t="s">
         <v>339</v>
@@ -14474,13 +14498,13 @@
         <v>12</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I104" t="s">
         <v>16</v>
@@ -14492,24 +14516,24 @@
         <v>1</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M104" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="N104" t="s">
-        <v>501</v>
+        <v>1140</v>
       </c>
       <c r="O104" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="P104" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B105" t="s">
         <v>339</v>
@@ -14521,7 +14545,7 @@
         <v>47</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>22</v>
@@ -14536,18 +14560,18 @@
         <v>1</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="P105" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B106" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C106" t="s">
         <v>340</v>
@@ -14556,7 +14580,7 @@
         <v>47</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>22</v>
@@ -14574,24 +14598,24 @@
         <v>1</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="M106" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="N106" t="s">
         <v>196</v>
       </c>
       <c r="O106" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="P106" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B107" t="s">
         <v>339</v>
@@ -14603,7 +14627,7 @@
         <v>47</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>14</v>
@@ -14621,24 +14645,24 @@
         <v>1</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="M107" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="N107" t="s">
         <v>78</v>
       </c>
       <c r="O107" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="P107" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B108" t="s">
         <v>339</v>
@@ -14650,7 +14674,7 @@
         <v>47</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>29</v>
@@ -14669,15 +14693,15 @@
       </c>
       <c r="L108" s="7"/>
       <c r="M108" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="P108" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B109" t="s">
         <v>339</v>
@@ -14689,13 +14713,13 @@
         <v>47</v>
       </c>
       <c r="E109" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I109" t="s">
         <v>16</v>
@@ -14707,24 +14731,24 @@
         <v>1</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="M109" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="N109" t="s">
         <v>78</v>
       </c>
       <c r="O109" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="P109" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -14736,7 +14760,7 @@
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>22</v>
@@ -14754,24 +14778,24 @@
         <v>1</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="M110" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="N110" t="s">
         <v>165</v>
       </c>
       <c r="O110" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="P110" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -14783,13 +14807,13 @@
         <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H111" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="I111" t="s">
         <v>16</v>
@@ -14801,15 +14825,15 @@
         <v>1</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="P111" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -14821,13 +14845,13 @@
         <v>74</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H112" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I112" t="s">
         <v>16</v>
@@ -14839,24 +14863,24 @@
         <v>1</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="M112" t="s">
         <v>17</v>
       </c>
       <c r="N112" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="O112" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P112" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B113" t="s">
         <v>339</v>
@@ -14868,13 +14892,13 @@
         <v>47</v>
       </c>
       <c r="E113" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H113" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J113" s="2">
         <v>45428</v>
@@ -14883,18 +14907,18 @@
         <v>1</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="P113" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B114" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C114" t="s">
         <v>340</v>
@@ -14903,7 +14927,7 @@
         <v>47</v>
       </c>
       <c r="E114" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>22</v>
@@ -14921,15 +14945,15 @@
         <v>1</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="P114" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B115" t="s">
         <v>339</v>
@@ -14941,7 +14965,7 @@
         <v>47</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>29</v>
@@ -14956,27 +14980,27 @@
         <v>1</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="P115" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B116" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D116" t="s">
         <v>47</v>
       </c>
       <c r="E116" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>22</v>
@@ -14995,21 +15019,21 @@
       </c>
       <c r="L116" s="7"/>
       <c r="M116" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N116" t="s">
         <v>165</v>
       </c>
       <c r="O116" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="P116" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B117" t="s">
         <v>339</v>
@@ -15021,42 +15045,42 @@
         <v>139</v>
       </c>
       <c r="E117" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H117" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I117" t="s">
         <v>16</v>
       </c>
       <c r="J117" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="M117" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="N117" t="s">
-        <v>58</v>
+        <v>1141</v>
       </c>
       <c r="O117" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="P117" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -15068,7 +15092,7 @@
         <v>47</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>29</v>
@@ -15086,18 +15110,18 @@
         <v>1</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="P118" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B119" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C119" t="s">
         <v>340</v>
@@ -15106,7 +15130,7 @@
         <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>22</v>
@@ -15124,18 +15148,18 @@
         <v>1</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="P119" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B120" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
         <v>340</v>
@@ -15144,13 +15168,13 @@
         <v>47</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I120" t="s">
         <v>16</v>
@@ -15169,15 +15193,15 @@
         <v>165</v>
       </c>
       <c r="O120" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="P120" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -15189,7 +15213,7 @@
         <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>22</v>
@@ -15207,27 +15231,27 @@
         <v>1</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="M121" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="N121" t="s">
         <v>291</v>
       </c>
       <c r="O121" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="P121" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B122" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C122" t="s">
         <v>340</v>
@@ -15236,13 +15260,13 @@
         <v>47</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I122" t="s">
         <v>16</v>
@@ -15254,15 +15278,15 @@
         <v>1</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="P122" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -15274,7 +15298,7 @@
         <v>139</v>
       </c>
       <c r="E123" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>22</v>
@@ -15292,27 +15316,27 @@
         <v>1</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="M123" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="N123" t="s">
         <v>18</v>
       </c>
       <c r="O123" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="P123" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B124" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C124" t="s">
         <v>340</v>
@@ -15321,7 +15345,7 @@
         <v>47</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G124" s="9" t="s">
         <v>22</v>
@@ -15339,27 +15363,27 @@
         <v>1</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="M124" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N124" t="s">
         <v>196</v>
       </c>
       <c r="O124" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="P124" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B125" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C125" t="s">
         <v>340</v>
@@ -15368,7 +15392,7 @@
         <v>47</v>
       </c>
       <c r="E125" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G125" s="9" t="s">
         <v>22</v>
@@ -15386,24 +15410,24 @@
         <v>1</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="M125" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="N125" t="s">
         <v>165</v>
       </c>
       <c r="O125" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P125" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B126" t="s">
         <v>339</v>
@@ -15415,7 +15439,7 @@
         <v>139</v>
       </c>
       <c r="E126" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G126" s="9" t="s">
         <v>22</v>
@@ -15433,24 +15457,24 @@
         <v>1</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="M126" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="N126" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="O126" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="P126" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B127" t="s">
         <v>339</v>
@@ -15462,7 +15486,7 @@
         <v>47</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G127" s="9" t="s">
         <v>14</v>
@@ -15480,15 +15504,15 @@
         <v>1</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="P127" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -15500,7 +15524,7 @@
         <v>47</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>14</v>
@@ -15518,18 +15542,18 @@
         <v>1</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="M128" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="P128" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -15541,7 +15565,7 @@
         <v>47</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G129" s="9" t="s">
         <v>22</v>
@@ -15559,15 +15583,15 @@
         <v>1</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="P129" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -15579,7 +15603,7 @@
         <v>47</v>
       </c>
       <c r="E130" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>22</v>
@@ -15597,27 +15621,27 @@
         <v>1</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="M130" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="N130" t="s">
         <v>78</v>
       </c>
       <c r="O130" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="P130" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B131" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C131" t="s">
         <v>340</v>
@@ -15626,13 +15650,13 @@
         <v>47</v>
       </c>
       <c r="E131" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H131" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="I131" t="s">
         <v>16</v>
@@ -15651,15 +15675,15 @@
         <v>196</v>
       </c>
       <c r="O131" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="P131" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B132" t="s">
         <v>339</v>
@@ -15671,13 +15695,13 @@
         <v>47</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G132" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I132" t="s">
         <v>16</v>
@@ -15689,27 +15713,27 @@
         <v>1</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="M132" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="N132" t="s">
-        <v>387</v>
+        <v>1134</v>
       </c>
       <c r="O132" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="P132" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B133" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C133" t="s">
         <v>340</v>
@@ -15718,7 +15742,7 @@
         <v>47</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>22</v>
@@ -15736,24 +15760,24 @@
         <v>1</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="M133" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="N133" t="s">
-        <v>25</v>
+        <v>1143</v>
       </c>
       <c r="O133" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="P133" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -15765,7 +15789,7 @@
         <v>47</v>
       </c>
       <c r="E134" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>22</v>
@@ -15784,21 +15808,21 @@
       </c>
       <c r="L134" s="7"/>
       <c r="M134" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="N134" t="s">
         <v>78</v>
       </c>
       <c r="O134" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="P134" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -15810,7 +15834,7 @@
         <v>47</v>
       </c>
       <c r="E135" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G135" s="9" t="s">
         <v>22</v>
@@ -15828,18 +15852,18 @@
         <v>1</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="M135" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="P135" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B136" t="s">
         <v>339</v>
@@ -15851,7 +15875,7 @@
         <v>47</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" t="s">
@@ -15865,12 +15889,12 @@
       </c>
       <c r="L136" s="7"/>
       <c r="P136" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B137" t="s">
         <v>371</v>
@@ -15882,7 +15906,7 @@
         <v>47</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>14</v>
@@ -15897,18 +15921,18 @@
         <v>1</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="P137" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B138" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C138" t="s">
         <v>340</v>
@@ -15917,7 +15941,7 @@
         <v>47</v>
       </c>
       <c r="E138" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G138" s="9" t="s">
         <v>22</v>
@@ -15932,15 +15956,15 @@
         <v>1</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="P138" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B139" t="s">
         <v>339</v>
@@ -15952,7 +15976,7 @@
         <v>47</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G139" s="9" t="s">
         <v>14</v>
@@ -15967,27 +15991,27 @@
         <v>1</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="M139" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="N139" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="O139" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="P139" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B140" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C140" t="s">
         <v>340</v>
@@ -15996,7 +16020,7 @@
         <v>47</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G140" s="9" t="s">
         <v>14</v>
@@ -16011,24 +16035,24 @@
         <v>1</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="M140" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="N140" t="s">
         <v>291</v>
       </c>
       <c r="O140" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="P140" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B141" t="s">
         <v>339</v>
@@ -16040,13 +16064,13 @@
         <v>47</v>
       </c>
       <c r="E141" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G141" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J141" s="2">
         <v>45530</v>
@@ -16055,27 +16079,27 @@
         <v>1</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="M141" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="N141" t="s">
         <v>291</v>
       </c>
       <c r="O141" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="P141" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B142" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C142" t="s">
         <v>340</v>
@@ -16084,13 +16108,13 @@
         <v>47</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G142" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J142" s="2">
         <v>45531</v>
@@ -16099,27 +16123,27 @@
         <v>1</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="M142" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="N142" t="s">
         <v>291</v>
       </c>
       <c r="O142" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="P142" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B143" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C143" t="s">
         <v>340</v>
@@ -16128,7 +16152,7 @@
         <v>47</v>
       </c>
       <c r="E143" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G143" s="9" t="s">
         <v>22</v>
@@ -16143,27 +16167,27 @@
         <v>1</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="M143" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="N143" t="s">
         <v>78</v>
       </c>
       <c r="O143" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="P143" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B144" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C144" t="s">
         <v>340</v>
@@ -16172,7 +16196,7 @@
         <v>47</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G144" s="9" t="s">
         <v>29</v>
@@ -16187,27 +16211,27 @@
         <v>1</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="M144" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N144" t="s">
         <v>78</v>
       </c>
       <c r="O144" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="P144" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C145" t="s">
         <v>340</v>
@@ -16216,7 +16240,7 @@
         <v>47</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G145" s="9" t="s">
         <v>14</v>
@@ -16231,27 +16255,27 @@
         <v>1</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="M145" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="N145" t="s">
         <v>78</v>
       </c>
       <c r="O145" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="P145" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B146" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C146" t="s">
         <v>340</v>
@@ -16260,13 +16284,13 @@
         <v>47</v>
       </c>
       <c r="E146" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G146" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H146" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J146" s="2">
         <v>45548</v>
@@ -16275,19 +16299,19 @@
         <v>1</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="M146" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="N146" t="s">
-        <v>872</v>
+        <v>1144</v>
       </c>
       <c r="O146" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="P146" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
